--- a/Maqueta/Maqueta programacion - Final.xlsx
+++ b/Maqueta/Maqueta programacion - Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IKIGAI\Maqueta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA01F64-986B-406D-8226-FF2CF1EA8028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1795120-ABD8-4817-B110-D613008CF926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-6795" windowWidth="29040" windowHeight="15720" tabRatio="639" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,11 +287,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -439,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -557,29 +565,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,7 +928,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,69 +938,69 @@
     <col min="3" max="3" width="19.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="40" style="6" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="23" customWidth="1"/>
     <col min="10" max="10" width="12" style="23" customWidth="1"/>
     <col min="11" max="11" width="44.28515625" style="6" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="32.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="57.140625" style="6" customWidth="1"/>
     <col min="18" max="18" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:18" s="46" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="47">
+      <c r="E1" s="50">
         <v>1123084833</v>
       </c>
-      <c r="F1" s="46">
+      <c r="F1" s="49">
         <v>2023</v>
       </c>
-      <c r="G1" s="47">
+      <c r="G1" s="50">
         <v>4</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="48">
+      <c r="I1" s="51">
         <v>14</v>
       </c>
-      <c r="J1" s="49">
+      <c r="J1" s="52">
         <v>14</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="46">
-        <v>2023</v>
+      <c r="M1" s="51"/>
+      <c r="N1" s="53">
+        <v>45019</v>
       </c>
-      <c r="O1" s="50">
+      <c r="O1" s="54">
         <v>0.29166666666666669</v>
       </c>
-      <c r="P1" s="50">
+      <c r="P1" s="54">
         <v>0.35416666666666669</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="48" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3132,8 +3144,8 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="2:12" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
